--- a/4HOUR.xlsx
+++ b/4HOUR.xlsx
@@ -1,26 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524525D-C03E-4EC9-BBAC-F01B2ED26982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="540" yWindow="0" windowWidth="10044" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">ПРОЦЕС </t>
+  </si>
+  <si>
+    <t>ПОЧАТОК</t>
+  </si>
+  <si>
+    <t>ТРИВАЛІСТЬ</t>
+  </si>
+  <si>
+    <t>КІНЕЦЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналіз передумов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Постановка задачі </t>
+  </si>
+  <si>
+    <t>Проектування ПЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конструювання першої версії </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реліз першої версії </t>
+  </si>
+  <si>
+    <t>Прототипування першої версії</t>
+  </si>
+  <si>
+    <t>Прототипування другої версії</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестування першої версії </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Супровід першої версії </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конструювання другої версії </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестування другої версії </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реліз другої версії </t>
+  </si>
+  <si>
+    <t>Прототипування третьої версії</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +99,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF49B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +153,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDF49B4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +468,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43800.11</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43831.11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43800</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43831.11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43800.11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43831.11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43831.11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43875.11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43862.11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43935.11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43922.11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43952.11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43952.11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43965.11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
+        <v>43952.11</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="7">
+        <v>43996.11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43965.11</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7">
+        <v>43862.11</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="7">
+        <v>43935.11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43922.11</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43952.11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7">
+        <v>43952.11</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>43965.11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10">
+        <v>43952.11</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="10">
+        <v>43996.11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>43965.11</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>